--- a/shozaki/友達管理/友達管理課題.xlsx
+++ b/shozaki/友達管理/友達管理課題.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiueo\OneDrive\デスクトップ\ITPLAN用\勉強会\20220305_勉強会開発\20220305_勉強会開発1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiueo\StudyMeeting\shozaki\友達管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503D44B9-293A-4F82-ACE1-F7D3EC51E27B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD944F8-ACD6-43B6-AEDA-9CB2A553931F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C809330A-C165-4DF7-92E9-4CCF3FEDCB29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C809330A-C165-4DF7-92E9-4CCF3FEDCB29}"/>
   </bookViews>
   <sheets>
     <sheet name="①テーブル" sheetId="1" r:id="rId1"/>
@@ -966,14 +966,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -981,44 +1002,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049084BF-E82B-43EC-8427-69663BD75D2C}">
   <dimension ref="A2:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -1579,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDE746-9C03-4B39-B7FA-BDDADF37A47D}">
   <dimension ref="B2:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1602,27 +1602,27 @@
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="2:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="29"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -1639,11 +1639,11 @@
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
@@ -1655,29 +1655,29 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="21"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
@@ -1688,40 +1688,40 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="27"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
@@ -1732,18 +1732,18 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="21"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="2:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
